--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250486.3735680424</v>
+        <v>-253187.5902194992</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>208.2085323732921</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>68.05806311232716</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>2.888979978479274</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.80572523143863</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>246.9350375079385</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154312</v>
+        <v>383.6877278154299</v>
       </c>
       <c r="G5" t="n">
-        <v>340.6633945549519</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>164.8004349405251</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>106.451146763063</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>61.86134015458362</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>97.33388804333229</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695173</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.36018225871382</v>
+        <v>4.360182258713976</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643536</v>
+        <v>1.905236112643678</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>19.44221941575956</v>
+        <v>164.7113988557383</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>254.882137899782</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>395.7425475562869</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>109.4436170969558</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>79.41653965146595</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>76.96973592819644</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>124.706075534559</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>71.88511693499963</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,10 +1585,10 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>95.10185674187925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>3.814130455270078</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.1684078822107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>121.2558461704862</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594871</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>28.75188085811773</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179706</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.632620083626705</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>117.2645540643928</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>192.5871593887784</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>91.66636605273473</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812027</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766862</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>113.7076464771371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703268</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428197</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797029</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275112</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603332</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>157.477756798422</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4325,25 +4325,25 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.787594686703</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="C3" t="n">
-        <v>180.334565405576</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1051.937358411601</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V3" t="n">
-        <v>816.7852501798586</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W3" t="n">
-        <v>562.5478934516569</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="X3" t="n">
-        <v>562.5478934516569</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="Y3" t="n">
-        <v>354.787594686703</v>
+        <v>474.2580350095591</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.4777916095494</v>
+        <v>343.9546663945495</v>
       </c>
       <c r="C4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
         <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>982.324484418713</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>982.324484418713</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>756.8554481767274</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>756.8554481767274</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>756.8554481767274</v>
+        <v>593.383997210649</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4777916095494</v>
+        <v>343.9546663945495</v>
       </c>
       <c r="X4" t="n">
-        <v>490.4777916095494</v>
+        <v>343.9546663945495</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.4777916095494</v>
+        <v>343.9546663945495</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1148.151071197603</v>
+        <v>597.2679007845525</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.151071197603</v>
+        <v>597.2679007845525</v>
       </c>
       <c r="D5" t="n">
-        <v>1148.151071197603</v>
+        <v>597.2679007845525</v>
       </c>
       <c r="E5" t="n">
-        <v>762.3628185993589</v>
+        <v>597.2679007845525</v>
       </c>
       <c r="F5" t="n">
-        <v>374.7994571696303</v>
+        <v>209.7045393548253</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6950182252345</v>
+        <v>197.1601040237446</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.7664115927505</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245557</v>
+        <v>239.0325989245548</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825629</v>
+        <v>456.1499114825613</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748858</v>
+        <v>729.4041931748834</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.69382320238</v>
+        <v>1011.693823202376</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798413</v>
+        <v>1264.916654798409</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189411</v>
+        <v>1446.535482189406</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261725</v>
+        <v>1281.099443398237</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261725</v>
+        <v>950.0365560546667</v>
       </c>
       <c r="W5" t="n">
-        <v>1534.750911261725</v>
+        <v>597.2679007845525</v>
       </c>
       <c r="X5" t="n">
-        <v>1534.750911261725</v>
+        <v>597.2679007845525</v>
       </c>
       <c r="Y5" t="n">
-        <v>1534.750911261725</v>
+        <v>597.2679007845525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>727.8847737700185</v>
+        <v>487.908033773979</v>
       </c>
       <c r="C6" t="n">
-        <v>620.3583628982376</v>
+        <v>487.908033773979</v>
       </c>
       <c r="D6" t="n">
-        <v>471.4239532369864</v>
+        <v>487.908033773979</v>
       </c>
       <c r="E6" t="n">
-        <v>312.1864982315309</v>
+        <v>328.6705787685235</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6519402584159</v>
+        <v>266.1843765921764</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>129.012076854863</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="J6" t="n">
-        <v>174.272186062639</v>
+        <v>49.44206107563393</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101427</v>
+        <v>168.1621611715525</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414948</v>
+        <v>362.657505002904</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122408</v>
+        <v>608.9812656736494</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584463</v>
+        <v>876.2331282458713</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749982</v>
+        <v>1098.496575411389</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.34742594867</v>
+        <v>1478.347425948665</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757974</v>
+        <v>1530.346686757968</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152069</v>
+        <v>1385.878273152063</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.973630703753</v>
+        <v>1385.878273152063</v>
       </c>
       <c r="U6" t="n">
-        <v>1189.973630703753</v>
+        <v>1157.757189472667</v>
       </c>
       <c r="V6" t="n">
-        <v>1189.973630703753</v>
+        <v>1157.757189472667</v>
       </c>
       <c r="W6" t="n">
-        <v>935.7362739755513</v>
+        <v>903.5198327444657</v>
       </c>
       <c r="X6" t="n">
-        <v>727.8847737700185</v>
+        <v>695.6683325389329</v>
       </c>
       <c r="Y6" t="n">
-        <v>727.8847737700185</v>
+        <v>487.908033773979</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>765.7798009831728</v>
+        <v>329.6260860573428</v>
       </c>
       <c r="C7" t="n">
-        <v>765.7798009831728</v>
+        <v>329.6260860573428</v>
       </c>
       <c r="D7" t="n">
-        <v>765.7798009831728</v>
+        <v>179.509446645007</v>
       </c>
       <c r="E7" t="n">
-        <v>617.8667074007797</v>
+        <v>179.509446645007</v>
       </c>
       <c r="F7" t="n">
-        <v>470.9767599028693</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="G7" t="n">
-        <v>302.595517540933</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274378</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6950182252345</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.4322756223264</v>
       </c>
       <c r="L7" t="n">
-        <v>375.138765583039</v>
+        <v>375.1387655830384</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388154</v>
+        <v>615.0688576388145</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974827</v>
+        <v>854.7285647974815</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.26700593402</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="U7" t="n">
-        <v>1214.56193102472</v>
+        <v>1067.825386135851</v>
       </c>
       <c r="V7" t="n">
-        <v>1214.56193102472</v>
+        <v>1067.825386135851</v>
       </c>
       <c r="W7" t="n">
-        <v>1214.56193102472</v>
+        <v>778.4082160988902</v>
       </c>
       <c r="X7" t="n">
-        <v>986.5723801267029</v>
+        <v>550.4186652008729</v>
       </c>
       <c r="Y7" t="n">
-        <v>765.7798009831728</v>
+        <v>329.6260860573428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.405431550704</v>
+        <v>1587.556048344953</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.405431550704</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.405431550704</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.405431550704</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>821.4195267610969</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4805,7 +4805,7 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526516</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.544763526516</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.405431550704</v>
+        <v>1587.556048344953</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>879.1794453258717</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1556.227393153825</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>1048.115628253779</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2142.12153627298</v>
+        <v>2042.237590822324</v>
       </c>
       <c r="C11" t="n">
-        <v>1773.159019332569</v>
+        <v>1964.490382814045</v>
       </c>
       <c r="D11" t="n">
-        <v>1414.893320725818</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>1029.105068127574</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>618.119163337966</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>203.5033987791116</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
@@ -5051,40 +5051,40 @@
         <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917564</v>
+        <v>3523.505408466908</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573993</v>
+        <v>3192.442521123337</v>
       </c>
       <c r="W11" t="n">
-        <v>3292.326466573993</v>
+        <v>3192.442521123337</v>
       </c>
       <c r="X11" t="n">
-        <v>2918.860708312914</v>
+        <v>2818.976762862257</v>
       </c>
       <c r="Y11" t="n">
-        <v>2528.721376337102</v>
+        <v>2428.837430886445</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>272.7431585655876</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626168</v>
+        <v>691.4401992235393</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>1199.396765180068</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1735.206074881278</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2203.147119213801</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.1515174135286</v>
+        <v>561.8849256150326</v>
       </c>
       <c r="C13" t="n">
-        <v>463.2153344856217</v>
+        <v>392.9487426871257</v>
       </c>
       <c r="D13" t="n">
-        <v>313.0986950732861</v>
+        <v>392.9487426871257</v>
       </c>
       <c r="E13" t="n">
-        <v>313.0986950732861</v>
+        <v>245.0356491047326</v>
       </c>
       <c r="F13" t="n">
-        <v>313.0986950732861</v>
+        <v>245.0356491047326</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893319</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.64459384277</v>
+        <v>1627.379943126699</v>
       </c>
       <c r="V13" t="n">
-        <v>1358.64459384277</v>
+        <v>1372.695454920812</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.582112285316</v>
+        <v>1083.278284883852</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.592561387298</v>
+        <v>855.2887339858344</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.7999822437683</v>
+        <v>634.4961548423042</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.637687073287</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138406</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.2861519035267</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,22 +5528,22 @@
         <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958734</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>652.8121879835378</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>504.8990944011448</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>358.0091469032345</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038316</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797717</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703086</v>
       </c>
     </row>
     <row r="23">
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6139,58 +6139,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2445.313972384678</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2262.459138039582</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2042.857673062523</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1753.782446406721</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.097958200834</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302816</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159286</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,25 +6239,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,13 +6479,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311364</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613761</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038343</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135294</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856225</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>550.6376870732868</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908937</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908937</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2332.106875017495</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.505410040436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1279.328525141786</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7421,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270446</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,16 +7573,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400722</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121654</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121654</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121654</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121654</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038343</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.502065570312</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637005</v>
+        <v>34.43939438637034</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>105.5468419254477</v>
+        <v>8.609690055160129</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>223.028187210695</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>288.3031558428111</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>165.2714278048158</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>107.9468632469377</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4211415947117</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185672</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>282.7088678813209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.41624546988411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.26829212178265</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>109.4223302771039</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884514</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194198</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.74262662649498</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>134.8730892594352</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.8182909385099</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>126.9182872993601</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.2291039219416</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>67.31863952450747</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991063</v>
@@ -26323,37 +26323,37 @@
         <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="G2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="I2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657071</v>
+        <v>132804.2190657058</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929376</v>
+        <v>265413.0723929389</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545776</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417425</v>
+        <v>30877.42926417393</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049557</v>
+        <v>65018.34502049597</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127308</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099264</v>
+        <v>217460.7998099267</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12281.50162217159</v>
@@ -26433,31 +26433,31 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12386.9201818181</v>
+      </c>
+      <c r="N4" t="n">
         <v>12386.92018181811</v>
       </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181817</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181813</v>
-      </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181811</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667494</v>
+        <v>72593.65038667484</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-688261.8850036884</v>
       </c>
       <c r="C6" t="n">
-        <v>-114968.0055632022</v>
+        <v>-114968.0055632012</v>
       </c>
       <c r="D6" t="n">
-        <v>-193207.1384013755</v>
+        <v>-193207.1384013769</v>
       </c>
       <c r="E6" t="n">
-        <v>-136275.1774412357</v>
+        <v>-136496.308755211</v>
       </c>
       <c r="F6" t="n">
-        <v>-137.7438924018352</v>
+        <v>-172.4818178376013</v>
       </c>
       <c r="G6" t="n">
-        <v>189170.5248780269</v>
+        <v>189135.7869525914</v>
       </c>
       <c r="H6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525912</v>
       </c>
       <c r="I6" t="n">
-        <v>189170.5248780269</v>
+        <v>189135.7869525915</v>
       </c>
       <c r="J6" t="n">
-        <v>120171.3704589129</v>
+        <v>120136.6325334774</v>
       </c>
       <c r="K6" t="n">
-        <v>158293.0956138527</v>
+        <v>158258.3576884175</v>
       </c>
       <c r="L6" t="n">
-        <v>124152.1798575313</v>
+        <v>124117.4419320953</v>
       </c>
       <c r="M6" t="n">
-        <v>107273.1211652962</v>
+        <v>107238.3832398605</v>
       </c>
       <c r="N6" t="n">
-        <v>139330.9507460032</v>
+        <v>139296.2128205678</v>
       </c>
       <c r="O6" t="n">
-        <v>189170.5248780269</v>
+        <v>189135.7869525914</v>
       </c>
       <c r="P6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525914</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695749</v>
+        <v>717.3319511695738</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154312</v>
+        <v>383.6877278154299</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.2208239490094</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000966</v>
+        <v>103.2769374000956</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479644</v>
+        <v>216.7329409479654</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.1763450974114</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813925</v>
+        <v>119.9738478139238</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.897104284609</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813925</v>
+        <v>119.9738478139238</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846074</v>
+        <v>256.897104284609</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813925</v>
+        <v>119.9738478139238</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.897104284609</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>146.4745092473909</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>289.903479783282</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104.6504358759886</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>222.9655075250753</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>55.69887765222529</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>39.58796082865248</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628021</v>
+        <v>23.18831792628157</v>
       </c>
       <c r="G5" t="n">
-        <v>71.75559642281803</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>145.1411979494515</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863689</v>
+        <v>99.30025118863706</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>66.2573522252527</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>83.20787223880026</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
-        <v>266.8062526996327</v>
+        <v>121.5370732596539</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>110.3907538712255</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.80515521666706</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>39.17185592125652</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>5.055922180081919e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-2.760944739616222e-13</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365123</v>
+        <v>2.883746537365119</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579058</v>
+        <v>29.53316922579053</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817688</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756934</v>
+        <v>244.754382675693</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023591</v>
+        <v>366.8233736023585</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952471</v>
+        <v>455.0768316952464</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791141</v>
+        <v>506.3606591791133</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284028</v>
+        <v>514.554104028402</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974783</v>
+        <v>485.8788493974775</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562767</v>
+        <v>414.6863567562761</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868882</v>
+        <v>311.4121838868877</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277621</v>
+        <v>181.1461434277618</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020781</v>
+        <v>65.71337422020771</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731581</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892098</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.542940423270404</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316419</v>
+        <v>14.90155619316417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189777</v>
+        <v>53.12316808189769</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453797</v>
+        <v>249.1510419453793</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438662</v>
+        <v>335.0143230438656</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874183</v>
+        <v>390.9459133874177</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189116</v>
+        <v>401.2930884189109</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348673</v>
+        <v>367.1047769348667</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190657</v>
+        <v>294.6339480190651</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739558</v>
+        <v>196.9549915739555</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392931</v>
+        <v>95.79765189392916</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399196</v>
+        <v>28.65944163399192</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989048</v>
+        <v>6.219132670989039</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.1015092383730529</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.5008302990794</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572057</v>
+        <v>38.9005589257205</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402924</v>
+        <v>91.4539440040291</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401172</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.3155201545444</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773275</v>
+        <v>202.7697513773272</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022535</v>
+        <v>197.9483399022532</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669599</v>
+        <v>182.8373307669596</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960659</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266056</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565109</v>
+        <v>58.162685745651</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101761</v>
+        <v>22.54303853101758</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060657</v>
+        <v>5.526983886060648</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864679</v>
+        <v>0.07055724109864668</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>335.0187042770527</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279845</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319857</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198384</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900708</v>
+        <v>63.70847814900668</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573785</v>
+        <v>146.733522557378</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252598</v>
+        <v>219.3104167252591</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518413</v>
+        <v>276.0144259518405</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318119</v>
+        <v>285.1410404318111</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757916</v>
+        <v>255.7806379757908</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010072</v>
+        <v>183.4533610010066</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243867</v>
+        <v>89.10649401243822</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600046</v>
+        <v>18.9364069195955</v>
       </c>
       <c r="K6" t="n">
-        <v>216.8564448964684</v>
+        <v>119.9192930261804</v>
       </c>
       <c r="L6" t="n">
-        <v>196.459943263992</v>
+        <v>196.4599432639914</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654</v>
+        <v>248.8118794653994</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355783</v>
+        <v>269.9513763355776</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904229</v>
+        <v>224.5085324904223</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047354</v>
+        <v>383.6877278154299</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793425</v>
+        <v>56.97321748793394</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142346</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148609</v>
+        <v>219.9055454148606</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391681</v>
+        <v>242.3536283391678</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814821</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809996</v>
+        <v>207.4224586809993</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609594</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491143</v>
+        <v>22.15508137491126</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35258,19 +35258,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>197.1772653026938</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059662</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875412</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317167</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096322</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
